--- a/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_ログイン画面(金原).xlsx
+++ b/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_ログイン画面(金原).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="46" documentId="8_{65EDF5FC-C01B-49FB-B760-BC27E93F57EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D2233B5-F623-4CCF-87DF-DFEC4A35112A}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="774" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -23,22 +23,22 @@
     <sheet name="補足説明" sheetId="27" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">BL一覧!$A$1:$AH$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">IO関連図!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">イベント!$A$1:$AH$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">画面レイアウト!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">目次・概要!$A$1:$AH$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">補足説明!$A$1:$AH$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">項目説明!$A$1:$AH$28</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">BL一覧!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">IO関連図!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">イベント!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">画面レイアウト!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">目次・概要!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">補足説明!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">項目説明!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'目次・概要'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'IO関連図'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'画面レイアウト'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'項目説明'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'イベント'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'BL一覧'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'補足説明'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙'!A1:AF38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'目次・概要'!A1:AH44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'IO関連図'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面レイアウト'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'項目説明'!A1:AH28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'イベント'!A1:AH17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'BL一覧'!A1:AH24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'補足説明'!A1:AH41</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -58,138 +58,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>詳細設計書</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>システム名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>サブシステム名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>機能名</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>作成会社</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>担当者</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>勤怠管理システム</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>基本情報管理</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ログイン（画面）</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>TPC</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>金原</t>
   </si>
   <si>
     <t>更新履歴</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>バージョン</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>作成･更新日</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>改版理由・箇所</t>
-    <rPh sb="0" eb="2">
-      <t>カイハン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>担当</t>
-    <rPh sb="0" eb="2">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ver0.1</t>
@@ -202,140 +118,45 @@
   </si>
   <si>
     <t>補足説明書</t>
-    <rPh sb="0" eb="2">
-      <t>ホソク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>BL名</t>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>■目次</t>
-    <rPh sb="1" eb="3">
-      <t>モクジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・概要</t>
-    <rPh sb="1" eb="3">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・I/O関連図</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・画面レイアウト</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・項目説明</t>
-    <rPh sb="1" eb="3">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・イベント一覧</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・ＢＬ一覧</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・更新仕様書</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・補足説明書</t>
-    <rPh sb="1" eb="3">
-      <t>ホソク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>■概要</t>
-    <rPh sb="1" eb="3">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>１．機能概要（本機能の役割、処理内容、利用者など）</t>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヤクワリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>利用者から社員IDとパスワードを入力してもらい合致すれば、その社員に応じた</t>
@@ -348,27 +169,12 @@
   </si>
   <si>
     <t>IO関連図</t>
-    <rPh sb="2" eb="4">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>画面レイアウト</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>社員ID</t>
@@ -387,415 +193,144 @@
   </si>
   <si>
     <t>項目説明書</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セツメイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>プロスペクト更新</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>項目名</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>I/O</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>桁数</t>
-    <rPh sb="0" eb="2">
-      <t>ケタスウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>IME</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>必須</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>参照</t>
-    <rPh sb="0" eb="2">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>データ元（テーブル）</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>データ元項目名（列）</t>
-    <rPh sb="3" eb="4">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>レツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>値チェック/初期値</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>社員ID</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>社員ID（入力ボックス）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Off</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>W</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>社員マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>半角英数字・存在/ログイン社員</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>パスワード（入力ボックス）</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>半角英数字/ログイン社員</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ログインボタン</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>閉じるボタン</t>
   </si>
   <si>
     <t>イベント一覧</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>イベント</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>処理内容および引数（データ元.引数名,データ型,桁数,必須,チェック）</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケタスウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>処理BL（ビジネスロジック）</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>初期表示</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>社員ID（入力ボックス）、パスワード（入力ボックス）を初期表示なしとする</t>
   </si>
   <si>
     <t>マウスフォーカスを社員ID（入力ボックス）に置く</t>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>社員IDボタン.クリック</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>社員IDとパスワードをもって、社員マスタTBLにて検索を実施する。</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>一致した場合</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>社員マスタ．権限が１、９の場合は、社員情報一覧画面へ遷移とする</t>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>社員マスタ．権限が０の場合は、勤怠情報一覧画面へ遷移とする</t>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>閉じるボタン.クリック</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>画面を閉じる</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>BL（ビジネスロジック）一覧</t>
-    <rPh sb="12" eb="14">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>テーブル／BL</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>U</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>社員マスタ</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>プロスペクト参照</t>
-    <rPh sb="6" eb="8">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>1．必須入力・桁数・文字種別のチェック</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>社員ID（入力ボックス）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>パスワード（入力ボックス）</t>
   </si>
   <si>
     <t>2．社員ID存在チェック</t>
-    <rPh sb="2" eb="4">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>画面のパスワード（入力ボックス）の値により、社員マスタ．社員IDを検索</t>
-    <rPh sb="28" eb="30">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">SELECT SM.SYAINN_ID </t>
@@ -805,52 +340,18 @@
   </si>
   <si>
     <t>WHERE SM.SYAINN_ID = 画面．パスワード（入力ボックス）の値</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>3．エラー処理</t>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>社員IDチェックを実施し、存在しない場合は、以下のメッセージを表示</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>社員IDが存在しません</t>
   </si>
   <si>
     <t>社員IDが存在して、パスワードが一致しないの場合は、以下のメッセージを表示</t>
-    <rPh sb="5" eb="7">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1500,15 +1001,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6681" name="computr1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1FC1228-63F0-008A-D2D0-741444FAAEBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6681" name="computr1"/>
         <xdr:cNvSpPr>
           <a:spLocks noEditPoints="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1520,102 +1015,9 @@
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="T0" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T1" fmla="*/ 0 h 21600"/>
-            <a:gd name="T2" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T3" fmla="*/ 0 h 21600"/>
-            <a:gd name="T4" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T5" fmla="*/ 0 h 21600"/>
-            <a:gd name="T6" fmla="*/ 0 w 21600"/>
-            <a:gd name="T7" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T8" fmla="*/ 0 w 21600"/>
-            <a:gd name="T9" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T10" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T11" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T12" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T13" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T14" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T15" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T16" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T17" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T18" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T19" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T20" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T21" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T22" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T23" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T24" fmla="*/ 0 w 21600"/>
-            <a:gd name="T25" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T26" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T27" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T28" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T29" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T30" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T31" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T32" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T33" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T34" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T35" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T36" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T37" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T38" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T39" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T40" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T41" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T42" fmla="*/ 4923 w 21600"/>
-            <a:gd name="T43" fmla="*/ 2541 h 21600"/>
-            <a:gd name="T44" fmla="*/ 16756 w 21600"/>
-            <a:gd name="T45" fmla="*/ 11153 h 21600"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="T28">
-              <a:pos x="T0" y="T1"/>
-            </a:cxn>
-            <a:cxn ang="T29">
-              <a:pos x="T2" y="T3"/>
-            </a:cxn>
-            <a:cxn ang="T30">
-              <a:pos x="T4" y="T5"/>
-            </a:cxn>
-            <a:cxn ang="T31">
-              <a:pos x="T6" y="T7"/>
-            </a:cxn>
-            <a:cxn ang="T32">
-              <a:pos x="T8" y="T9"/>
-            </a:cxn>
-            <a:cxn ang="T33">
-              <a:pos x="T10" y="T11"/>
-            </a:cxn>
-            <a:cxn ang="T34">
-              <a:pos x="T12" y="T13"/>
-            </a:cxn>
-            <a:cxn ang="T35">
-              <a:pos x="T14" y="T15"/>
-            </a:cxn>
-            <a:cxn ang="T36">
-              <a:pos x="T16" y="T17"/>
-            </a:cxn>
-            <a:cxn ang="T37">
-              <a:pos x="T18" y="T19"/>
-            </a:cxn>
-            <a:cxn ang="T38">
-              <a:pos x="T20" y="T21"/>
-            </a:cxn>
-            <a:cxn ang="T39">
-              <a:pos x="T22" y="T23"/>
-            </a:cxn>
-            <a:cxn ang="T40">
-              <a:pos x="T24" y="T25"/>
-            </a:cxn>
-            <a:cxn ang="T41">
-              <a:pos x="T26" y="T27"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="T42" t="T43" r="T44" b="T45"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="21600" h="21600" extrusionOk="0">
+            <a:path w="21600" h="21600">
               <a:moveTo>
                 <a:pt x="16994" y="15388"/>
               </a:moveTo>
@@ -1675,7 +1077,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="21600" h="21600" extrusionOk="0">
+            <a:path w="21600" h="21600">
               <a:moveTo>
                 <a:pt x="4606" y="15388"/>
               </a:moveTo>
@@ -1692,7 +1094,7 @@
                 <a:pt x="4606" y="15388"/>
               </a:lnTo>
             </a:path>
-            <a:path w="21600" h="21600" extrusionOk="0">
+            <a:path w="21600" h="21600">
               <a:moveTo>
                 <a:pt x="4606" y="11294"/>
               </a:moveTo>
@@ -1734,69 +1136,53 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="107763" dir="13500000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p/>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>293764</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>154794</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>203210</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>1221</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163A6AC3-46AB-5049-0C32-C46DA087641E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="Rectangle 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6467869" y="3492354"/>
-          <a:ext cx="1037206" cy="326487"/>
+          <a:off x="7200900" y="3524250"/>
+          <a:ext cx="1171575" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
@@ -1807,7 +1193,6 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1827,33 +1212,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>124753</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>29015</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>81036</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>123366</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22B6554-2328-C0F6-A43B-92A939AE44B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Line 4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3498508" y="2246435"/>
-          <a:ext cx="1084043" cy="1214491"/>
+          <a:off x="3895725" y="2266950"/>
+          <a:ext cx="1209675" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1895,33 +1274,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>70485</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>182733</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1063BEAD-8348-CD01-B26E-A187A3CDA5F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="Line 5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="1188720" y="1975485"/>
-          <a:ext cx="666750" cy="0"/>
+          <a:off x="1323975" y="1990725"/>
+          <a:ext cx="742950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1963,47 +1336,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>15885</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71776041-07FC-F973-B2B5-09A4288375B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="AutoShape 10"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2912745" y="3470910"/>
-          <a:ext cx="1050290" cy="1171575"/>
+          <a:off x="3238500" y="3505200"/>
+          <a:ext cx="1171575" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
@@ -2014,7 +1379,6 @@
             <a:lnSpc>
               <a:spcPts val="1100"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2039,7 +1403,6 @@
             <a:lnSpc>
               <a:spcPts val="1100"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2056,33 +1419,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>251459</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>225545</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>141850</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D489B5-75B9-4770-FDEB-89E181145DC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="Line 4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3606164" y="2202180"/>
-          <a:ext cx="3366874" cy="1277230"/>
+          <a:off x="4019550" y="2219325"/>
+          <a:ext cx="3743325" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2124,33 +1481,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>36876</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>36976</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>37797</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>132617</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD1D9EF-EB77-9E16-1A14-B78833838735}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="Line 4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2564811" y="2254396"/>
-          <a:ext cx="856275" cy="1215781"/>
+          <a:off x="2857500" y="2266950"/>
+          <a:ext cx="942975" cy="1228725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2192,47 +1543,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>255513</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>78634</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>111565</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D984F1-204D-A10A-8170-EA29890A1BFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="AutoShape 13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1918578" y="1813560"/>
-          <a:ext cx="1251927" cy="355405"/>
+          <a:off x="2133600" y="1828800"/>
+          <a:ext cx="1400175" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
@@ -2243,7 +1586,6 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2263,47 +1605,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>74147</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>79131</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>184809</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>145074</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1D00B9-FD2E-6211-1D29-661800BA5CE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="AutoShape 13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4011782" y="1816491"/>
-          <a:ext cx="1510911" cy="385983"/>
+          <a:off x="4467225" y="1828800"/>
+          <a:ext cx="1685925" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
@@ -2314,7 +1648,6 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2332,7 +1665,6 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2349,47 +1681,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>41568</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>79131</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>137064</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>145074</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6DE763-F772-A5CF-74F2-78AF4D21E347}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="AutoShape 13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6234723" y="1816491"/>
-          <a:ext cx="1505196" cy="385983"/>
+          <a:off x="6953250" y="1828800"/>
+          <a:ext cx="1666875" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
@@ -2400,7 +1724,6 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2418,7 +1741,6 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2433,7 +1755,6 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2448,7 +1769,6 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2465,33 +1785,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>238222</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>152108</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>238222</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>157433</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7817B00-CC2C-7A9C-BA27-053D63AEA815}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Line 4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="6976207" y="2209508"/>
-          <a:ext cx="0" cy="1285485"/>
+          <a:off x="7781925" y="2219325"/>
+          <a:ext cx="0" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2533,33 +1847,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>103505</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>102869</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38735</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>107949</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3445920-0F42-A021-C390-877CEAB7C850}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="Line 5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="3195320" y="2000249"/>
-          <a:ext cx="781050" cy="5080"/>
+          <a:off x="3552825" y="2009775"/>
+          <a:ext cx="885825" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2601,33 +1909,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>208915</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>7076</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D83F72-BDC4-0D41-B1D8-1840D0B8FCFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="Line 5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="5546725" y="1998345"/>
-          <a:ext cx="662984" cy="0"/>
+          <a:off x="6172200" y="2009775"/>
+          <a:ext cx="742950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2674,56 +1976,48 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>207433</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>17992</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>9156</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>75142</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB622F02-C084-AB3F-B424-8B29CD4FF241}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Text Box 2"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5236633" y="2742142"/>
-          <a:ext cx="744698" cy="219075"/>
+          <a:off x="5229225" y="2733675"/>
+          <a:ext cx="742950" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
+          <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" rtlCol="0" anchor="t" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -2742,59 +2036,48 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266066</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>298525</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>46794</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBCF726-518B-78F8-B6DA-C1162A737F1F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BB622F02-C084-AB3F-B424-8B29CD4FF241}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Text Box 3"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5295266" y="2057401"/>
-          <a:ext cx="661109" cy="227768"/>
+          <a:off x="5286375" y="2057400"/>
+          <a:ext cx="666750" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
+          <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" rtlCol="0" anchor="t" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -3113,19 +2396,51 @@
   <dimension ref="A1:FT38"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+      <selection activeCell="AC22" sqref="AC22:AE22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
-    <col min="7" max="32" width="4.125" style="2" customWidth="1"/>
-    <col min="33" max="36" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
     <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" ht="12">
+    <row r="1" ht="12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3159,7 +2474,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:176" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="2" customHeight="1" ht="15" customFormat="1" s="10">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3337,7 +2652,7 @@
       <c r="FS2" s="23"/>
       <c r="FT2" s="23"/>
     </row>
-    <row r="3" spans="1:176" ht="15" customHeight="1">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="11"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3370,7 +2685,7 @@
       <c r="AE3" s="9"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:176" ht="15" customHeight="1">
+    <row r="4" customHeight="1" ht="15">
       <c r="A4" s="11"/>
       <c r="B4" s="76" t="s">
         <v>0</v>
@@ -3406,7 +2721,7 @@
       <c r="AE4" s="76"/>
       <c r="AF4" s="12"/>
     </row>
-    <row r="5" spans="1:176" ht="15" customHeight="1">
+    <row r="5" customHeight="1" ht="15">
       <c r="A5" s="11"/>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
@@ -3440,7 +2755,7 @@
       <c r="AE5" s="76"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:176" ht="15" customHeight="1">
+    <row r="6" customHeight="1" ht="15">
       <c r="A6" s="11"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3473,7 +2788,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="12"/>
     </row>
-    <row r="7" spans="1:176" ht="15" customHeight="1">
+    <row r="7" customHeight="1" ht="15">
       <c r="A7" s="11"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -3506,7 +2821,7 @@
       <c r="AE7" s="9"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:176" ht="15" customHeight="1">
+    <row r="8" customHeight="1" ht="15">
       <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3540,7 +2855,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="12"/>
     </row>
-    <row r="9" spans="1:176" ht="15" customHeight="1">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="11"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3573,7 +2888,7 @@
       <c r="AE9" s="9"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:176" ht="15" customHeight="1">
+    <row r="10" customHeight="1" ht="15">
       <c r="A10" s="11"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3607,7 +2922,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="12"/>
     </row>
-    <row r="11" spans="1:176" ht="15" customHeight="1">
+    <row r="11" customHeight="1" ht="15">
       <c r="A11" s="11"/>
       <c r="B11" s="83" t="s">
         <v>1</v>
@@ -3651,7 +2966,7 @@
       <c r="AE11" s="85"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:176" ht="15" customHeight="1">
+    <row r="12" customHeight="1" ht="15">
       <c r="A12" s="11"/>
       <c r="B12" s="77" t="s">
         <v>6</v>
@@ -3695,7 +3010,7 @@
       <c r="AE12" s="79"/>
       <c r="AF12" s="12"/>
     </row>
-    <row r="13" spans="1:176" ht="15" customHeight="1">
+    <row r="13" customHeight="1" ht="15">
       <c r="A13" s="11"/>
       <c r="B13" s="80"/>
       <c r="C13" s="81"/>
@@ -3729,7 +3044,7 @@
       <c r="AE13" s="82"/>
       <c r="AF13" s="12"/>
     </row>
-    <row r="14" spans="1:176" ht="15" customHeight="1">
+    <row r="14" customHeight="1" ht="15">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3762,7 +3077,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="12"/>
     </row>
-    <row r="15" spans="1:176" ht="15" customHeight="1">
+    <row r="15" customHeight="1" ht="15">
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3795,7 +3110,7 @@
       <c r="AE15" s="9"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:176" ht="15" customHeight="1">
+    <row r="16" customHeight="1" ht="15">
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3828,7 +3143,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="12"/>
     </row>
-    <row r="17" spans="1:32" ht="15" customHeight="1">
+    <row r="17" customHeight="1" ht="15">
       <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3861,7 +3176,7 @@
       <c r="AE17" s="9"/>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" ht="15" customHeight="1">
+    <row r="18" customHeight="1" ht="15">
       <c r="A18" s="11"/>
       <c r="B18" s="27" t="s">
         <v>11</v>
@@ -3896,7 +3211,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="12"/>
     </row>
-    <row r="19" spans="1:32" ht="15" customHeight="1">
+    <row r="19" customHeight="1" ht="15">
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3929,7 +3244,7 @@
       <c r="AE19" s="9"/>
       <c r="AF19" s="12"/>
     </row>
-    <row r="20" spans="1:32" ht="15" customHeight="1">
+    <row r="20" customHeight="1" ht="15">
       <c r="A20" s="11"/>
       <c r="B20" s="101" t="s">
         <v>12</v>
@@ -3971,7 +3286,7 @@
       <c r="AE20" s="103"/>
       <c r="AF20" s="12"/>
     </row>
-    <row r="21" spans="1:32" ht="15" customHeight="1">
+    <row r="21" customHeight="1" ht="15">
       <c r="A21" s="11"/>
       <c r="B21" s="95" t="s">
         <v>16</v>
@@ -4007,13 +3322,13 @@
       <c r="AA21" s="114"/>
       <c r="AB21" s="115"/>
       <c r="AC21" s="113" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AD21" s="114"/>
       <c r="AE21" s="115"/>
       <c r="AF21" s="12"/>
     </row>
-    <row r="22" spans="1:32" ht="15" customHeight="1">
+    <row r="22" customHeight="1" ht="15">
       <c r="A22" s="11"/>
       <c r="B22" s="92"/>
       <c r="C22" s="93"/>
@@ -4047,7 +3362,7 @@
       <c r="AE22" s="115"/>
       <c r="AF22" s="12"/>
     </row>
-    <row r="23" spans="1:32" ht="15" customHeight="1">
+    <row r="23" customHeight="1" ht="15">
       <c r="A23" s="11"/>
       <c r="B23" s="92"/>
       <c r="C23" s="93"/>
@@ -4081,7 +3396,7 @@
       <c r="AE23" s="115"/>
       <c r="AF23" s="12"/>
     </row>
-    <row r="24" spans="1:32" ht="15" customHeight="1">
+    <row r="24" customHeight="1" ht="15">
       <c r="A24" s="11"/>
       <c r="B24" s="92"/>
       <c r="C24" s="93"/>
@@ -4115,7 +3430,7 @@
       <c r="AE24" s="115"/>
       <c r="AF24" s="12"/>
     </row>
-    <row r="25" spans="1:32" ht="15" customHeight="1">
+    <row r="25" customHeight="1" ht="15">
       <c r="A25" s="11"/>
       <c r="B25" s="92"/>
       <c r="C25" s="93"/>
@@ -4149,7 +3464,7 @@
       <c r="AE25" s="115"/>
       <c r="AF25" s="12"/>
     </row>
-    <row r="26" spans="1:32" ht="15" customHeight="1">
+    <row r="26" customHeight="1" ht="15">
       <c r="A26" s="11"/>
       <c r="B26" s="92"/>
       <c r="C26" s="93"/>
@@ -4183,7 +3498,7 @@
       <c r="AE26" s="115"/>
       <c r="AF26" s="12"/>
     </row>
-    <row r="27" spans="1:32" ht="15" customHeight="1">
+    <row r="27" customHeight="1" ht="15">
       <c r="A27" s="11"/>
       <c r="B27" s="92"/>
       <c r="C27" s="93"/>
@@ -4217,7 +3532,7 @@
       <c r="AE27" s="115"/>
       <c r="AF27" s="12"/>
     </row>
-    <row r="28" spans="1:32" ht="15" customHeight="1">
+    <row r="28" customHeight="1" ht="15">
       <c r="A28" s="11"/>
       <c r="B28" s="92"/>
       <c r="C28" s="93"/>
@@ -4251,7 +3566,7 @@
       <c r="AE28" s="115"/>
       <c r="AF28" s="12"/>
     </row>
-    <row r="29" spans="1:32" ht="15" customHeight="1">
+    <row r="29" customHeight="1" ht="15">
       <c r="A29" s="11"/>
       <c r="B29" s="92"/>
       <c r="C29" s="93"/>
@@ -4285,7 +3600,7 @@
       <c r="AE29" s="115"/>
       <c r="AF29" s="12"/>
     </row>
-    <row r="30" spans="1:32" ht="15" customHeight="1">
+    <row r="30" customHeight="1" ht="15">
       <c r="A30" s="11"/>
       <c r="B30" s="92"/>
       <c r="C30" s="93"/>
@@ -4319,7 +3634,7 @@
       <c r="AE30" s="115"/>
       <c r="AF30" s="12"/>
     </row>
-    <row r="31" spans="1:32" ht="15" customHeight="1">
+    <row r="31" customHeight="1" ht="15">
       <c r="A31" s="11"/>
       <c r="B31" s="92"/>
       <c r="C31" s="93"/>
@@ -4353,7 +3668,7 @@
       <c r="AE31" s="115"/>
       <c r="AF31" s="12"/>
     </row>
-    <row r="32" spans="1:32" ht="15" customHeight="1">
+    <row r="32" customHeight="1" ht="15">
       <c r="A32" s="11"/>
       <c r="B32" s="92"/>
       <c r="C32" s="93"/>
@@ -4387,7 +3702,7 @@
       <c r="AE32" s="115"/>
       <c r="AF32" s="12"/>
     </row>
-    <row r="33" spans="1:32" ht="15" customHeight="1">
+    <row r="33" customHeight="1" ht="15">
       <c r="A33" s="11"/>
       <c r="B33" s="92"/>
       <c r="C33" s="93"/>
@@ -4421,7 +3736,7 @@
       <c r="AE33" s="115"/>
       <c r="AF33" s="12"/>
     </row>
-    <row r="34" spans="1:32" ht="15" customHeight="1">
+    <row r="34" customHeight="1" ht="15">
       <c r="A34" s="11"/>
       <c r="B34" s="92"/>
       <c r="C34" s="93"/>
@@ -4455,7 +3770,7 @@
       <c r="AE34" s="115"/>
       <c r="AF34" s="12"/>
     </row>
-    <row r="35" spans="1:32" ht="15" customHeight="1">
+    <row r="35" customHeight="1" ht="15">
       <c r="A35" s="11"/>
       <c r="B35" s="92"/>
       <c r="C35" s="93"/>
@@ -4489,7 +3804,7 @@
       <c r="AE35" s="115"/>
       <c r="AF35" s="12"/>
     </row>
-    <row r="36" spans="1:32" ht="15" customHeight="1">
+    <row r="36" customHeight="1" ht="15">
       <c r="A36" s="11"/>
       <c r="B36" s="92"/>
       <c r="C36" s="93"/>
@@ -4523,7 +3838,7 @@
       <c r="AE36" s="115"/>
       <c r="AF36" s="12"/>
     </row>
-    <row r="37" spans="1:32" ht="15" customHeight="1">
+    <row r="37" customHeight="1" ht="15">
       <c r="A37" s="11"/>
       <c r="B37" s="113"/>
       <c r="C37" s="114"/>
@@ -4557,7 +3872,7 @@
       <c r="AE37" s="115"/>
       <c r="AF37" s="12"/>
     </row>
-    <row r="38" spans="1:32" ht="15" customHeight="1">
+    <row r="38" customHeight="1" ht="15">
       <c r="A38" s="13"/>
       <c r="B38" s="63"/>
       <c r="C38" s="63"/>
@@ -4593,14 +3908,41 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
     <mergeCell ref="J24:AB24"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="J25:AB25"/>
     <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="J26:AB26"/>
@@ -4649,33 +3991,6 @@
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="J37:AB37"/>
     <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -4695,16 +4010,50 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
-    <col min="7" max="34" width="4.125" style="2" customWidth="1"/>
-    <col min="35" max="38" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
+    <col min="38" max="38" width="4" style="2" customWidth="1"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="104" t="s">
         <v>19</v>
       </c>
@@ -4742,7 +4091,7 @@
       <c r="AG1" s="104"/>
       <c r="AH1" s="104"/>
     </row>
-    <row r="2" spans="1:178" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
@@ -4790,9 +4139,9 @@
       </c>
       <c r="AH2" s="85"/>
     </row>
-    <row r="3" spans="1:178" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="77" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>勤怠管理システム</v>
       </c>
       <c r="B3" s="78"/>
@@ -4801,7 +4150,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="79"/>
       <c r="G3" s="77" t="str">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>基本情報管理</v>
       </c>
       <c r="H3" s="78"/>
@@ -4811,7 +4160,7 @@
       <c r="L3" s="78"/>
       <c r="M3" s="79"/>
       <c r="N3" s="77" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）</v>
       </c>
       <c r="O3" s="78"/>
@@ -4833,17 +4182,17 @@
       <c r="AC3" s="78"/>
       <c r="AD3" s="79"/>
       <c r="AE3" s="77" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AF3" s="79"/>
       <c r="AG3" s="77" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>金原</v>
       </c>
       <c r="AH3" s="79"/>
     </row>
-    <row r="4" spans="1:178" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -4879,7 +4228,7 @@
       <c r="AG4" s="80"/>
       <c r="AH4" s="82"/>
     </row>
-    <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="10">
       <c r="A5" s="55"/>
       <c r="B5" s="5"/>
       <c r="C5" s="56"/>
@@ -5059,7 +4408,7 @@
       <c r="FU5" s="23"/>
       <c r="FV5" s="23"/>
     </row>
-    <row r="6" spans="1:178" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="58" t="s">
         <v>22</v>
       </c>
@@ -5097,7 +4446,7 @@
       <c r="AG6" s="59"/>
       <c r="AH6" s="60"/>
     </row>
-    <row r="7" spans="1:178" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="58"/>
       <c r="B7" s="59" t="s">
         <v>23</v>
@@ -5135,7 +4484,7 @@
       <c r="AG7" s="59"/>
       <c r="AH7" s="60"/>
     </row>
-    <row r="8" spans="1:178" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="58"/>
       <c r="B8" s="59" t="s">
         <v>24</v>
@@ -5173,7 +4522,7 @@
       <c r="AG8" s="59"/>
       <c r="AH8" s="60"/>
     </row>
-    <row r="9" spans="1:178" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="58"/>
       <c r="B9" s="59" t="s">
         <v>25</v>
@@ -5211,7 +4560,7 @@
       <c r="AG9" s="59"/>
       <c r="AH9" s="60"/>
     </row>
-    <row r="10" spans="1:178" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="58"/>
       <c r="B10" s="59" t="s">
         <v>26</v>
@@ -5249,7 +4598,7 @@
       <c r="AG10" s="59"/>
       <c r="AH10" s="60"/>
     </row>
-    <row r="11" spans="1:178" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="58"/>
       <c r="B11" s="59" t="s">
         <v>27</v>
@@ -5287,7 +4636,7 @@
       <c r="AG11" s="59"/>
       <c r="AH11" s="60"/>
     </row>
-    <row r="12" spans="1:178" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="58"/>
       <c r="B12" s="59" t="s">
         <v>28</v>
@@ -5325,7 +4674,7 @@
       <c r="AG12" s="59"/>
       <c r="AH12" s="60"/>
     </row>
-    <row r="13" spans="1:178" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="58"/>
       <c r="B13" s="59" t="s">
         <v>29</v>
@@ -5363,7 +4712,7 @@
       <c r="AG13" s="59"/>
       <c r="AH13" s="60"/>
     </row>
-    <row r="14" spans="1:178" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="58"/>
       <c r="B14" s="59" t="s">
         <v>30</v>
@@ -5401,7 +4750,7 @@
       <c r="AG14" s="59"/>
       <c r="AH14" s="60"/>
     </row>
-    <row r="15" spans="1:178" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -5437,7 +4786,7 @@
       <c r="AG15" s="59"/>
       <c r="AH15" s="60"/>
     </row>
-    <row r="16" spans="1:178" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="58" t="s">
         <v>31</v>
       </c>
@@ -5475,7 +4824,7 @@
       <c r="AG16" s="59"/>
       <c r="AH16" s="60"/>
     </row>
-    <row r="17" spans="1:34" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="58"/>
       <c r="B17" s="59" t="s">
         <v>32</v>
@@ -5513,7 +4862,7 @@
       <c r="AG17" s="59"/>
       <c r="AH17" s="60"/>
     </row>
-    <row r="18" spans="1:34" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="58"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59" t="s">
@@ -5551,7 +4900,7 @@
       <c r="AG18" s="59"/>
       <c r="AH18" s="60"/>
     </row>
-    <row r="19" spans="1:34" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="58"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59" t="s">
@@ -5589,7 +4938,7 @@
       <c r="AG19" s="59"/>
       <c r="AH19" s="60"/>
     </row>
-    <row r="20" spans="1:34" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="58"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59" t="s">
@@ -5627,7 +4976,7 @@
       <c r="AG20" s="59"/>
       <c r="AH20" s="60"/>
     </row>
-    <row r="21" spans="1:34" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="58"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -5663,7 +5012,7 @@
       <c r="AG21" s="59"/>
       <c r="AH21" s="60"/>
     </row>
-    <row r="22" spans="1:34" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="58"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -5699,7 +5048,7 @@
       <c r="AG22" s="59"/>
       <c r="AH22" s="60"/>
     </row>
-    <row r="23" spans="1:34" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="58"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
@@ -5735,7 +5084,7 @@
       <c r="AG23" s="59"/>
       <c r="AH23" s="60"/>
     </row>
-    <row r="24" spans="1:34" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="58"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -5771,7 +5120,7 @@
       <c r="AG24" s="59"/>
       <c r="AH24" s="60"/>
     </row>
-    <row r="25" spans="1:34" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="58"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -5807,7 +5156,7 @@
       <c r="AG25" s="59"/>
       <c r="AH25" s="60"/>
     </row>
-    <row r="26" spans="1:34" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="58"/>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
@@ -5843,7 +5192,7 @@
       <c r="AG26" s="59"/>
       <c r="AH26" s="60"/>
     </row>
-    <row r="27" spans="1:34" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="58"/>
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
@@ -5879,7 +5228,7 @@
       <c r="AG27" s="59"/>
       <c r="AH27" s="60"/>
     </row>
-    <row r="28" spans="1:34" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="58"/>
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
@@ -5915,7 +5264,7 @@
       <c r="AG28" s="59"/>
       <c r="AH28" s="60"/>
     </row>
-    <row r="29" spans="1:34" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="58"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -5951,7 +5300,7 @@
       <c r="AG29" s="59"/>
       <c r="AH29" s="60"/>
     </row>
-    <row r="30" spans="1:34" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="58"/>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
@@ -5987,7 +5336,7 @@
       <c r="AG30" s="59"/>
       <c r="AH30" s="60"/>
     </row>
-    <row r="31" spans="1:34" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="58"/>
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
@@ -6023,7 +5372,7 @@
       <c r="AG31" s="59"/>
       <c r="AH31" s="60"/>
     </row>
-    <row r="32" spans="1:34" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="58"/>
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
@@ -6059,7 +5408,7 @@
       <c r="AG32" s="59"/>
       <c r="AH32" s="60"/>
     </row>
-    <row r="33" spans="1:34" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="58"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
@@ -6095,7 +5444,7 @@
       <c r="AG33" s="59"/>
       <c r="AH33" s="60"/>
     </row>
-    <row r="34" spans="1:34" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="58"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
@@ -6131,7 +5480,7 @@
       <c r="AG34" s="59"/>
       <c r="AH34" s="60"/>
     </row>
-    <row r="35" spans="1:34" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="58"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
@@ -6167,7 +5516,7 @@
       <c r="AG35" s="59"/>
       <c r="AH35" s="60"/>
     </row>
-    <row r="36" spans="1:34" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="58"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -6203,7 +5552,7 @@
       <c r="AG36" s="59"/>
       <c r="AH36" s="60"/>
     </row>
-    <row r="37" spans="1:34" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="58"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
@@ -6239,7 +5588,7 @@
       <c r="AG37" s="59"/>
       <c r="AH37" s="60"/>
     </row>
-    <row r="38" spans="1:34" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="58"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
@@ -6275,7 +5624,7 @@
       <c r="AG38" s="59"/>
       <c r="AH38" s="60"/>
     </row>
-    <row r="39" spans="1:34" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="58"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
@@ -6311,7 +5660,7 @@
       <c r="AG39" s="59"/>
       <c r="AH39" s="60"/>
     </row>
-    <row r="40" spans="1:34" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="58"/>
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
@@ -6347,7 +5696,7 @@
       <c r="AG40" s="59"/>
       <c r="AH40" s="60"/>
     </row>
-    <row r="41" spans="1:34" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="58"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -6383,7 +5732,7 @@
       <c r="AG41" s="59"/>
       <c r="AH41" s="60"/>
     </row>
-    <row r="42" spans="1:34" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="58"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
@@ -6419,7 +5768,7 @@
       <c r="AG42" s="59"/>
       <c r="AH42" s="60"/>
     </row>
-    <row r="43" spans="1:34" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="58"/>
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
@@ -6455,7 +5804,7 @@
       <c r="AG43" s="59"/>
       <c r="AH43" s="60"/>
     </row>
-    <row r="44" spans="1:34" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="62"/>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
@@ -6499,12 +5848,12 @@
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -6526,16 +5875,49 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="2" customWidth="1"/>
-    <col min="34" max="37" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
     <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="104" t="s">
         <v>36</v>
       </c>
@@ -6572,7 +5954,7 @@
       <c r="AF1" s="104"/>
       <c r="AG1" s="104"/>
     </row>
-    <row r="2" spans="1:177" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
@@ -6617,9 +5999,9 @@
       </c>
       <c r="AG2" s="85"/>
     </row>
-    <row r="3" spans="1:177" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="77" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>勤怠管理システム</v>
       </c>
       <c r="B3" s="78"/>
@@ -6628,7 +6010,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="79"/>
       <c r="G3" s="77" t="str">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>基本情報管理</v>
       </c>
       <c r="H3" s="78"/>
@@ -6637,7 +6019,7 @@
       <c r="K3" s="78"/>
       <c r="L3" s="79"/>
       <c r="M3" s="77" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）</v>
       </c>
       <c r="N3" s="78"/>
@@ -6657,17 +6039,17 @@
       <c r="AB3" s="78"/>
       <c r="AC3" s="79"/>
       <c r="AD3" s="77" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="79"/>
       <c r="AF3" s="77" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>金原</v>
       </c>
       <c r="AG3" s="79"/>
     </row>
-    <row r="4" spans="1:177" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -6702,7 +6084,7 @@
       <c r="AF4" s="80"/>
       <c r="AG4" s="82"/>
     </row>
-    <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="10">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
@@ -6881,7 +6263,7 @@
       <c r="FT5" s="23"/>
       <c r="FU5" s="23"/>
     </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -6916,7 +6298,7 @@
       <c r="AF6" s="25"/>
       <c r="AG6" s="26"/>
     </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="11"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -6951,7 +6333,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -6985,7 +6367,7 @@
       <c r="AF8" s="9"/>
       <c r="AG8" s="12"/>
     </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="11"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7012,7 +6394,7 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="11"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7040,7 +6422,7 @@
       <c r="AF10" s="9"/>
       <c r="AG10" s="12"/>
     </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="11"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7068,7 +6450,7 @@
       <c r="AF11" s="9"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="11"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7095,7 +6477,7 @@
       <c r="AF12" s="9"/>
       <c r="AG12" s="12"/>
     </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="11"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7129,7 +6511,7 @@
       <c r="AF13" s="9"/>
       <c r="AG13" s="12"/>
     </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7163,7 +6545,7 @@
       <c r="AF14" s="9"/>
       <c r="AG14" s="12"/>
     </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7195,7 +6577,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7229,7 +6611,7 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="12"/>
     </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -7263,7 +6645,7 @@
       <c r="AF17" s="9"/>
       <c r="AG17" s="12"/>
     </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="11"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -7296,7 +6678,7 @@
       <c r="AF18" s="9"/>
       <c r="AG18" s="12"/>
     </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -7329,7 +6711,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="12"/>
     </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="11"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -7361,7 +6743,7 @@
       <c r="AF20" s="9"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="11"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -7395,7 +6777,7 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="12"/>
     </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="11"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -7429,7 +6811,7 @@
       <c r="AF22" s="9"/>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="11"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -7456,7 +6838,7 @@
       <c r="AF23" s="9"/>
       <c r="AG23" s="12"/>
     </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -7484,7 +6866,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="12"/>
     </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="11"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -7511,7 +6893,7 @@
       <c r="AF25" s="9"/>
       <c r="AG25" s="12"/>
     </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="11"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -7538,7 +6920,7 @@
       <c r="AF26" s="9"/>
       <c r="AG26" s="12"/>
     </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="11"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -7565,7 +6947,7 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="12"/>
     </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="11"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -7592,7 +6974,7 @@
       <c r="AF28" s="9"/>
       <c r="AG28" s="12"/>
     </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="11"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -7619,7 +7001,7 @@
       <c r="AF29" s="9"/>
       <c r="AG29" s="12"/>
     </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="11"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -7646,7 +7028,7 @@
       <c r="AF30" s="9"/>
       <c r="AG30" s="12"/>
     </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="11"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -7681,7 +7063,7 @@
       <c r="AF31" s="9"/>
       <c r="AG31" s="12"/>
     </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="11"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -7716,7 +7098,7 @@
       <c r="AF32" s="9"/>
       <c r="AG32" s="12"/>
     </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="11"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -7751,7 +7133,7 @@
       <c r="AF33" s="9"/>
       <c r="AG33" s="12"/>
     </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="11"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -7786,7 +7168,7 @@
       <c r="AF34" s="9"/>
       <c r="AG34" s="12"/>
     </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="11"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -7821,7 +7203,7 @@
       <c r="AF35" s="9"/>
       <c r="AG35" s="12"/>
     </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="11"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -7856,7 +7238,7 @@
       <c r="AF36" s="9"/>
       <c r="AG36" s="12"/>
     </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="11"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -7891,7 +7273,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="12"/>
     </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="11"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -7926,7 +7308,7 @@
       <c r="AF38" s="9"/>
       <c r="AG38" s="12"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -7961,7 +7343,7 @@
       <c r="AF39" s="9"/>
       <c r="AG39" s="12"/>
     </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -7996,7 +7378,7 @@
       <c r="AF40" s="14"/>
       <c r="AG40" s="15"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="28" t="s">
         <v>37</v>
       </c>
@@ -8033,7 +7415,7 @@
       <c r="AF41" s="9"/>
       <c r="AG41" s="12"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="11"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -8068,7 +7450,7 @@
       <c r="AF42" s="9"/>
       <c r="AG42" s="12"/>
     </row>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="11"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -8103,7 +7485,7 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="12"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -8140,16 +7522,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8172,16 +7554,49 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="2" customWidth="1"/>
-    <col min="34" max="37" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
     <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="104" t="s">
         <v>38</v>
       </c>
@@ -8218,7 +7633,7 @@
       <c r="AF1" s="104"/>
       <c r="AG1" s="104"/>
     </row>
-    <row r="2" spans="1:177" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
@@ -8263,9 +7678,9 @@
       </c>
       <c r="AG2" s="85"/>
     </row>
-    <row r="3" spans="1:177" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="77" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>勤怠管理システム</v>
       </c>
       <c r="B3" s="78"/>
@@ -8274,7 +7689,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="79"/>
       <c r="G3" s="77" t="str">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>基本情報管理</v>
       </c>
       <c r="H3" s="78"/>
@@ -8283,7 +7698,7 @@
       <c r="K3" s="78"/>
       <c r="L3" s="79"/>
       <c r="M3" s="77" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）</v>
       </c>
       <c r="N3" s="78"/>
@@ -8303,17 +7718,17 @@
       <c r="AB3" s="78"/>
       <c r="AC3" s="79"/>
       <c r="AD3" s="77" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="79"/>
       <c r="AF3" s="77" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>金原</v>
       </c>
       <c r="AG3" s="79"/>
     </row>
-    <row r="4" spans="1:177" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -8348,7 +7763,7 @@
       <c r="AF4" s="80"/>
       <c r="AG4" s="82"/>
     </row>
-    <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="10">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
@@ -8527,7 +7942,7 @@
       <c r="FT5" s="23"/>
       <c r="FU5" s="23"/>
     </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -8562,7 +7977,7 @@
       <c r="AF6" s="25"/>
       <c r="AG6" s="26"/>
     </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="71"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -8597,19 +8012,16 @@
       <c r="AF7" s="30"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="71"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="31"/>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
       <c r="K8" s="66" t="s">
         <v>40</v>
       </c>
@@ -8636,7 +8048,7 @@
       <c r="AF8" s="30"/>
       <c r="AG8" s="12"/>
     </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="71"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -8671,14 +8083,13 @@
       <c r="AF9" s="30"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="71"/>
       <c r="B10" s="72"/>
       <c r="C10" s="72"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
-      <c r="G10"/>
       <c r="H10" s="116" t="s">
         <v>41</v>
       </c>
@@ -8686,9 +8097,6 @@
       <c r="J10" s="117"/>
       <c r="K10" s="117"/>
       <c r="L10" s="118"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
@@ -8708,7 +8116,7 @@
       <c r="AF10" s="30"/>
       <c r="AG10" s="12"/>
     </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="71"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -8717,10 +8125,6 @@
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="31"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
@@ -8743,7 +8147,7 @@
       <c r="AF11" s="30"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="71"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -8782,7 +8186,7 @@
       <c r="AF12" s="30"/>
       <c r="AG12" s="12"/>
     </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="71"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -8791,14 +8195,6 @@
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="31"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
       <c r="S13" s="31"/>
@@ -8817,14 +8213,13 @@
       <c r="AF13" s="30"/>
       <c r="AG13" s="12"/>
     </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="71"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
-      <c r="G14"/>
       <c r="H14" s="105" t="s">
         <v>43</v>
       </c>
@@ -8836,8 +8231,6 @@
       <c r="N14" s="119"/>
       <c r="O14" s="119"/>
       <c r="P14" s="120"/>
-      <c r="Q14"/>
-      <c r="R14"/>
       <c r="S14" s="31"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
@@ -8854,7 +8247,7 @@
       <c r="AF14" s="30"/>
       <c r="AG14" s="12"/>
     </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="71"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -8863,18 +8256,9 @@
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="31"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="106"/>
       <c r="S15" s="106"/>
-      <c r="T15"/>
       <c r="U15" s="30"/>
       <c r="V15" s="31"/>
       <c r="W15" s="30"/>
@@ -8889,7 +8273,7 @@
       <c r="AF15" s="32"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="71"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -8906,8 +8290,6 @@
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
-      <c r="Q16"/>
-      <c r="R16"/>
       <c r="S16" s="31"/>
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
@@ -8924,7 +8306,7 @@
       <c r="AF16" s="32"/>
       <c r="AG16" s="12"/>
     </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="71"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -8959,7 +8341,7 @@
       <c r="AF17" s="32"/>
       <c r="AG17" s="12"/>
     </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="71"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -8977,7 +8359,6 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18"/>
       <c r="S18" s="31"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
@@ -8994,7 +8375,7 @@
       <c r="AF18" s="32"/>
       <c r="AG18" s="12"/>
     </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="71"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -9011,10 +8392,8 @@
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
-      <c r="Q19"/>
       <c r="R19" s="106"/>
       <c r="S19" s="121"/>
-      <c r="T19"/>
       <c r="U19" s="30"/>
       <c r="V19" s="31"/>
       <c r="W19" s="30"/>
@@ -9029,7 +8408,7 @@
       <c r="AF19" s="32"/>
       <c r="AG19" s="12"/>
     </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="71"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -9047,7 +8426,6 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20"/>
       <c r="S20" s="31"/>
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
@@ -9064,7 +8442,7 @@
       <c r="AF20" s="32"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="71"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -9099,7 +8477,7 @@
       <c r="AF21" s="32"/>
       <c r="AG21" s="12"/>
     </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="71"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -9134,7 +8512,7 @@
       <c r="AF22" s="32"/>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="71"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -9169,7 +8547,7 @@
       <c r="AF23" s="32"/>
       <c r="AG23" s="12"/>
     </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="71"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -9204,7 +8582,7 @@
       <c r="AF24" s="32"/>
       <c r="AG24" s="12"/>
     </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="71"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -9239,7 +8617,7 @@
       <c r="AF25" s="32"/>
       <c r="AG25" s="12"/>
     </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="71"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -9274,7 +8652,7 @@
       <c r="AF26" s="32"/>
       <c r="AG26" s="12"/>
     </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="71"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -9309,7 +8687,7 @@
       <c r="AF27" s="32"/>
       <c r="AG27" s="12"/>
     </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="71"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -9344,7 +8722,7 @@
       <c r="AF28" s="32"/>
       <c r="AG28" s="12"/>
     </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="71"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -9379,7 +8757,7 @@
       <c r="AF29" s="32"/>
       <c r="AG29" s="12"/>
     </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="71"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -9414,7 +8792,7 @@
       <c r="AF30" s="32"/>
       <c r="AG30" s="12"/>
     </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="71"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -9449,7 +8827,7 @@
       <c r="AF31" s="32"/>
       <c r="AG31" s="12"/>
     </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="71"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -9484,7 +8862,7 @@
       <c r="AF32" s="32"/>
       <c r="AG32" s="12"/>
     </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="71"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -9519,7 +8897,7 @@
       <c r="AF33" s="32"/>
       <c r="AG33" s="12"/>
     </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="11"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -9554,7 +8932,7 @@
       <c r="AF34" s="32"/>
       <c r="AG34" s="12"/>
     </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="11"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -9589,7 +8967,7 @@
       <c r="AF35" s="32"/>
       <c r="AG35" s="12"/>
     </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="11"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -9624,7 +9002,7 @@
       <c r="AF36" s="32"/>
       <c r="AG36" s="12"/>
     </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="11"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -9659,7 +9037,7 @@
       <c r="AF37" s="32"/>
       <c r="AG37" s="12"/>
     </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="11"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -9694,7 +9072,7 @@
       <c r="AF38" s="32"/>
       <c r="AG38" s="12"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="11"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -9729,7 +9107,7 @@
       <c r="AF39" s="32"/>
       <c r="AG39" s="12"/>
     </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="11"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -9764,7 +9142,7 @@
       <c r="AF40" s="32"/>
       <c r="AG40" s="12"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="11"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -9799,7 +9177,7 @@
       <c r="AF41" s="32"/>
       <c r="AG41" s="12"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="11"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -9834,7 +9212,7 @@
       <c r="AF42" s="30"/>
       <c r="AG42" s="12"/>
     </row>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="11"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
@@ -9852,7 +9230,7 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="12"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -9889,20 +9267,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H14:P14"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="R19:S19"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9919,22 +9297,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FV28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="F11" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
+      <pane ySplit="5" topLeftCell="F6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="4.125" style="16" customWidth="1"/>
-    <col min="5" max="34" width="4.125" style="2" customWidth="1"/>
-    <col min="35" max="38" width="4" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
+    <col min="38" max="38" width="4" style="2" customWidth="1"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="104" t="s">
         <v>44</v>
       </c>
@@ -9972,7 +9384,7 @@
       <c r="AG1" s="104"/>
       <c r="AH1" s="104"/>
     </row>
-    <row r="2" spans="1:178" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
@@ -10020,9 +9432,9 @@
       </c>
       <c r="AH2" s="85"/>
     </row>
-    <row r="3" spans="1:178" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="77" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>勤怠管理システム</v>
       </c>
       <c r="B3" s="78"/>
@@ -10031,7 +9443,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="79"/>
       <c r="G3" s="77" t="str">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>基本情報管理</v>
       </c>
       <c r="H3" s="78"/>
@@ -10041,7 +9453,7 @@
       <c r="L3" s="78"/>
       <c r="M3" s="79"/>
       <c r="N3" s="77" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）</v>
       </c>
       <c r="O3" s="78"/>
@@ -10063,17 +9475,17 @@
       <c r="AC3" s="78"/>
       <c r="AD3" s="79"/>
       <c r="AE3" s="77" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AF3" s="79"/>
       <c r="AG3" s="77" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>金原</v>
       </c>
       <c r="AH3" s="79"/>
     </row>
-    <row r="4" spans="1:178" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -10109,7 +9521,7 @@
       <c r="AG4" s="80"/>
       <c r="AH4" s="82"/>
     </row>
-    <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="10">
       <c r="A5" s="35"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36" t="s">
@@ -10156,7 +9568,7 @@
       <c r="Z5" s="36"/>
       <c r="AA5" s="37"/>
       <c r="AB5" s="36" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="36"/>
       <c r="AD5" s="36"/>
@@ -10309,16 +9721,16 @@
       <c r="FU5" s="23"/>
       <c r="FV5" s="23"/>
     </row>
-    <row r="6" spans="1:178" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="38" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="40"/>
       <c r="F6" s="44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -10349,45 +9761,45 @@
       <c r="AG6" s="39"/>
       <c r="AH6" s="40"/>
     </row>
-    <row r="7" spans="1:178" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="40"/>
       <c r="F7" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" s="44">
         <v>10</v>
       </c>
       <c r="H7" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="K7" s="38" t="s">
         <v>61</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>63</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
       <c r="O7" s="40"/>
       <c r="P7" s="38" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="39"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
       <c r="T7" s="40"/>
       <c r="U7" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V7" s="39"/>
       <c r="W7" s="39"/>
@@ -10403,16 +9815,16 @@
       <c r="AG7" s="39"/>
       <c r="AH7" s="40"/>
     </row>
-    <row r="8" spans="1:178" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="38" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
       <c r="F8" s="44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -10443,45 +9855,45 @@
       <c r="AG8" s="39"/>
       <c r="AH8" s="40"/>
     </row>
-    <row r="9" spans="1:178" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="40"/>
       <c r="F9" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="44">
         <v>20</v>
       </c>
       <c r="H9" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="K9" s="38" t="s">
         <v>61</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>63</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
       <c r="N9" s="39"/>
       <c r="O9" s="41"/>
       <c r="P9" s="38" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="39"/>
       <c r="R9" s="42"/>
       <c r="S9" s="42"/>
       <c r="T9" s="41"/>
       <c r="U9" s="42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="V9" s="42"/>
       <c r="W9" s="42"/>
@@ -10497,16 +9909,16 @@
       <c r="AG9" s="39"/>
       <c r="AH9" s="40"/>
     </row>
-    <row r="10" spans="1:178" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
       <c r="F10" s="44" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
@@ -10537,16 +9949,16 @@
       <c r="AG10" s="39"/>
       <c r="AH10" s="40"/>
     </row>
-    <row r="11" spans="1:178" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="40"/>
       <c r="F11" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
@@ -10577,7 +9989,7 @@
       <c r="AG11" s="39"/>
       <c r="AH11" s="40"/>
     </row>
-    <row r="12" spans="1:178" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -10613,7 +10025,7 @@
       <c r="AG12" s="39"/>
       <c r="AH12" s="40"/>
     </row>
-    <row r="13" spans="1:178" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="38"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -10649,7 +10061,7 @@
       <c r="AG13" s="39"/>
       <c r="AH13" s="40"/>
     </row>
-    <row r="14" spans="1:178" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -10685,7 +10097,7 @@
       <c r="AG14" s="39"/>
       <c r="AH14" s="40"/>
     </row>
-    <row r="15" spans="1:178" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -10721,7 +10133,7 @@
       <c r="AG15" s="39"/>
       <c r="AH15" s="40"/>
     </row>
-    <row r="16" spans="1:178" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -10757,7 +10169,7 @@
       <c r="AG16" s="39"/>
       <c r="AH16" s="40"/>
     </row>
-    <row r="17" spans="1:34" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -10793,7 +10205,7 @@
       <c r="AG17" s="39"/>
       <c r="AH17" s="40"/>
     </row>
-    <row r="18" spans="1:34" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -10829,7 +10241,7 @@
       <c r="AG18" s="39"/>
       <c r="AH18" s="40"/>
     </row>
-    <row r="19" spans="1:34" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -10865,7 +10277,7 @@
       <c r="AG19" s="39"/>
       <c r="AH19" s="40"/>
     </row>
-    <row r="20" spans="1:34" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -10901,7 +10313,7 @@
       <c r="AG20" s="39"/>
       <c r="AH20" s="40"/>
     </row>
-    <row r="21" spans="1:34" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -10937,7 +10349,7 @@
       <c r="AG21" s="39"/>
       <c r="AH21" s="40"/>
     </row>
-    <row r="22" spans="1:34" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -10973,7 +10385,7 @@
       <c r="AG22" s="39"/>
       <c r="AH22" s="40"/>
     </row>
-    <row r="23" spans="1:34" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -11009,7 +10421,7 @@
       <c r="AG23" s="39"/>
       <c r="AH23" s="40"/>
     </row>
-    <row r="24" spans="1:34" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -11045,7 +10457,7 @@
       <c r="AG24" s="39"/>
       <c r="AH24" s="40"/>
     </row>
-    <row r="25" spans="1:34" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="38"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -11081,7 +10493,7 @@
       <c r="AG25" s="39"/>
       <c r="AH25" s="40"/>
     </row>
-    <row r="26" spans="1:34" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="38"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -11117,7 +10529,7 @@
       <c r="AG26" s="39"/>
       <c r="AH26" s="40"/>
     </row>
-    <row r="27" spans="1:34" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -11153,7 +10565,7 @@
       <c r="AG27" s="39"/>
       <c r="AH27" s="40"/>
     </row>
-    <row r="28" spans="1:34" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -11192,17 +10604,17 @@
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A2:F2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="G3:M4"/>
-    <mergeCell ref="AE3:AF4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11224,18 +10636,52 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
-    <col min="7" max="34" width="4.125" style="2" customWidth="1"/>
-    <col min="35" max="38" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
+    <col min="38" max="38" width="4" style="2" customWidth="1"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="104" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -11271,7 +10717,7 @@
       <c r="AG1" s="104"/>
       <c r="AH1" s="104"/>
     </row>
-    <row r="2" spans="1:178" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
@@ -11317,9 +10763,9 @@
       </c>
       <c r="AH2" s="85"/>
     </row>
-    <row r="3" spans="1:178" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="77" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>勤怠管理システム</v>
       </c>
       <c r="B3" s="78"/>
@@ -11328,7 +10774,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="79"/>
       <c r="G3" s="77" t="str">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>基本情報管理</v>
       </c>
       <c r="H3" s="78"/>
@@ -11338,7 +10784,7 @@
       <c r="L3" s="78"/>
       <c r="M3" s="79"/>
       <c r="N3" s="77" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）</v>
       </c>
       <c r="O3" s="78"/>
@@ -11358,17 +10804,17 @@
       <c r="AC3" s="78"/>
       <c r="AD3" s="79"/>
       <c r="AE3" s="77" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AF3" s="79"/>
       <c r="AG3" s="77" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>金原</v>
       </c>
       <c r="AH3" s="79"/>
     </row>
-    <row r="4" spans="1:178" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -11404,9 +10850,9 @@
       <c r="AG4" s="80"/>
       <c r="AH4" s="82"/>
     </row>
-    <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="10">
       <c r="A5" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -11414,7 +10860,7 @@
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
       <c r="G5" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
@@ -11438,7 +10884,7 @@
       <c r="AA5" s="36"/>
       <c r="AB5" s="37"/>
       <c r="AC5" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AD5" s="36"/>
       <c r="AE5" s="36"/>
@@ -11590,9 +11036,9 @@
       <c r="FU5" s="23"/>
       <c r="FV5" s="23"/>
     </row>
-    <row r="6" spans="1:178" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -11600,7 +11046,7 @@
       <c r="E6" s="39"/>
       <c r="F6" s="40"/>
       <c r="G6" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
@@ -11630,7 +11076,7 @@
       <c r="AG6" s="39"/>
       <c r="AH6" s="40"/>
     </row>
-    <row r="7" spans="1:178" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="38"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -11638,7 +11084,7 @@
       <c r="E7" s="39"/>
       <c r="F7" s="40"/>
       <c r="G7" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
@@ -11668,7 +11114,7 @@
       <c r="AG7" s="39"/>
       <c r="AH7" s="40"/>
     </row>
-    <row r="8" spans="1:178" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="38"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -11704,9 +11150,9 @@
       <c r="AG8" s="39"/>
       <c r="AH8" s="40"/>
     </row>
-    <row r="9" spans="1:178" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -11714,7 +11160,7 @@
       <c r="E9" s="39"/>
       <c r="F9" s="40"/>
       <c r="G9" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H9" s="39"/>
       <c r="I9" s="42"/>
@@ -11744,7 +11190,7 @@
       <c r="AG9" s="39"/>
       <c r="AH9" s="40"/>
     </row>
-    <row r="10" spans="1:178" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="38"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -11753,7 +11199,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
@@ -11782,7 +11228,7 @@
       <c r="AG10" s="39"/>
       <c r="AH10" s="40"/>
     </row>
-    <row r="11" spans="1:178" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -11792,7 +11238,7 @@
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -11820,7 +11266,7 @@
       <c r="AG11" s="39"/>
       <c r="AH11" s="40"/>
     </row>
-    <row r="12" spans="1:178" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -11830,7 +11276,7 @@
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
@@ -11858,7 +11304,7 @@
       <c r="AG12" s="39"/>
       <c r="AH12" s="40"/>
     </row>
-    <row r="13" spans="1:178" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="38"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -11894,9 +11340,9 @@
       <c r="AG13" s="39"/>
       <c r="AH13" s="40"/>
     </row>
-    <row r="14" spans="1:178" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -11904,7 +11350,7 @@
       <c r="E14" s="39"/>
       <c r="F14" s="41"/>
       <c r="G14" s="38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
@@ -11934,7 +11380,7 @@
       <c r="AG14" s="39"/>
       <c r="AH14" s="40"/>
     </row>
-    <row r="15" spans="1:178" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -11970,7 +11416,7 @@
       <c r="AG15" s="39"/>
       <c r="AH15" s="40"/>
     </row>
-    <row r="16" spans="1:178" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -12006,7 +11452,7 @@
       <c r="AG16" s="39"/>
       <c r="AH16" s="40"/>
     </row>
-    <row r="17" spans="1:34" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -12049,11 +11495,11 @@
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
     <mergeCell ref="N3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12073,18 +11519,52 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
-    <col min="7" max="34" width="4.125" style="2" customWidth="1"/>
-    <col min="35" max="38" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
+    <col min="38" max="38" width="4" style="2" customWidth="1"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="104" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -12120,7 +11600,7 @@
       <c r="AG1" s="104"/>
       <c r="AH1" s="104"/>
     </row>
-    <row r="2" spans="1:178" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
@@ -12166,9 +11646,9 @@
       </c>
       <c r="AH2" s="85"/>
     </row>
-    <row r="3" spans="1:178" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="77" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>勤怠管理システム</v>
       </c>
       <c r="B3" s="78"/>
@@ -12177,7 +11657,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="79"/>
       <c r="G3" s="77" t="str">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>基本情報管理</v>
       </c>
       <c r="H3" s="78"/>
@@ -12187,7 +11667,7 @@
       <c r="L3" s="78"/>
       <c r="M3" s="79"/>
       <c r="N3" s="77" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）</v>
       </c>
       <c r="O3" s="78"/>
@@ -12207,17 +11687,17 @@
       <c r="AC3" s="78"/>
       <c r="AD3" s="78"/>
       <c r="AE3" s="77" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AF3" s="79"/>
       <c r="AG3" s="77" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>金原</v>
       </c>
       <c r="AH3" s="79"/>
     </row>
-    <row r="4" spans="1:178" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -12253,9 +11733,9 @@
       <c r="AG4" s="80"/>
       <c r="AH4" s="82"/>
     </row>
-    <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="10">
       <c r="A5" s="107" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" s="108"/>
       <c r="C5" s="108"/>
@@ -12437,7 +11917,7 @@
       <c r="FU5" s="23"/>
       <c r="FV5" s="23"/>
     </row>
-    <row r="6" spans="1:178" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="110"/>
       <c r="B6" s="111"/>
       <c r="C6" s="111"/>
@@ -12445,93 +11925,93 @@
       <c r="E6" s="111"/>
       <c r="F6" s="112"/>
       <c r="G6" s="51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L6" s="51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M6" s="51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P6" s="51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R6" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="T6" s="51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U6" s="51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V6" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W6" s="51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="X6" s="51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y6" s="51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z6" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA6" s="51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AB6" s="51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AC6" s="51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD6" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE6" s="51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AF6" s="51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AG6" s="51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AH6" s="50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:178" ht="12.75" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="38" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -12539,7 +12019,7 @@
       <c r="E7" s="39"/>
       <c r="F7" s="34"/>
       <c r="G7" s="44" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
@@ -12569,7 +12049,7 @@
       <c r="AG7" s="44"/>
       <c r="AH7" s="34"/>
     </row>
-    <row r="8" spans="1:178" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="38"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -12605,7 +12085,7 @@
       <c r="AG8" s="44"/>
       <c r="AH8" s="34"/>
     </row>
-    <row r="9" spans="1:178" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="38"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -12641,7 +12121,7 @@
       <c r="AG9" s="44"/>
       <c r="AH9" s="46"/>
     </row>
-    <row r="10" spans="1:178" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="38"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -12677,7 +12157,7 @@
       <c r="AG10" s="52"/>
       <c r="AH10" s="46"/>
     </row>
-    <row r="11" spans="1:178" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -12713,7 +12193,7 @@
       <c r="AG11" s="52"/>
       <c r="AH11" s="46"/>
     </row>
-    <row r="12" spans="1:178" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -12749,7 +12229,7 @@
       <c r="AG12" s="44"/>
       <c r="AH12" s="34"/>
     </row>
-    <row r="13" spans="1:178" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="38"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -12785,7 +12265,7 @@
       <c r="AG13" s="44"/>
       <c r="AH13" s="34"/>
     </row>
-    <row r="14" spans="1:178" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -12821,7 +12301,7 @@
       <c r="AG14" s="44"/>
       <c r="AH14" s="34"/>
     </row>
-    <row r="15" spans="1:178" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -12857,7 +12337,7 @@
       <c r="AG15" s="44"/>
       <c r="AH15" s="34"/>
     </row>
-    <row r="16" spans="1:178" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -12893,7 +12373,7 @@
       <c r="AG16" s="44"/>
       <c r="AH16" s="34"/>
     </row>
-    <row r="17" spans="1:34" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -12929,7 +12409,7 @@
       <c r="AG17" s="44"/>
       <c r="AH17" s="34"/>
     </row>
-    <row r="18" spans="1:34" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -12965,7 +12445,7 @@
       <c r="AG18" s="44"/>
       <c r="AH18" s="34"/>
     </row>
-    <row r="19" spans="1:34" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -13001,7 +12481,7 @@
       <c r="AG19" s="44"/>
       <c r="AH19" s="34"/>
     </row>
-    <row r="20" spans="1:34" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -13037,7 +12517,7 @@
       <c r="AG20" s="44"/>
       <c r="AH20" s="34"/>
     </row>
-    <row r="21" spans="1:34" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -13073,7 +12553,7 @@
       <c r="AG21" s="44"/>
       <c r="AH21" s="34"/>
     </row>
-    <row r="22" spans="1:34" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -13109,7 +12589,7 @@
       <c r="AG22" s="44"/>
       <c r="AH22" s="34"/>
     </row>
-    <row r="23" spans="1:34" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -13145,7 +12625,7 @@
       <c r="AG23" s="44"/>
       <c r="AH23" s="34"/>
     </row>
-    <row r="24" spans="1:34" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -13188,12 +12668,12 @@
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
     <mergeCell ref="N3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A5:F6"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13209,20 +12689,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:FV41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
-    <col min="7" max="34" width="4.125" style="2" customWidth="1"/>
-    <col min="35" max="38" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
+    <col min="38" max="38" width="4" style="2" customWidth="1"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="104" t="s">
         <v>19</v>
       </c>
@@ -13260,7 +12774,7 @@
       <c r="AG1" s="104"/>
       <c r="AH1" s="104"/>
     </row>
-    <row r="2" spans="1:178" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
@@ -13308,9 +12822,9 @@
       </c>
       <c r="AH2" s="85"/>
     </row>
-    <row r="3" spans="1:178" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="77" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>勤怠管理システム</v>
       </c>
       <c r="B3" s="78"/>
@@ -13319,7 +12833,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="79"/>
       <c r="G3" s="77" t="str">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>基本情報管理</v>
       </c>
       <c r="H3" s="78"/>
@@ -13329,7 +12843,7 @@
       <c r="L3" s="78"/>
       <c r="M3" s="79"/>
       <c r="N3" s="77" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）</v>
       </c>
       <c r="O3" s="78"/>
@@ -13343,7 +12857,7 @@
       <c r="W3" s="78"/>
       <c r="X3" s="79"/>
       <c r="Y3" s="77" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Z3" s="78"/>
       <c r="AA3" s="78"/>
@@ -13351,17 +12865,17 @@
       <c r="AC3" s="78"/>
       <c r="AD3" s="79"/>
       <c r="AE3" s="77" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AF3" s="79"/>
       <c r="AG3" s="77" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>金原</v>
       </c>
       <c r="AH3" s="79"/>
     </row>
-    <row r="4" spans="1:178" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -13397,7 +12911,7 @@
       <c r="AG4" s="80"/>
       <c r="AH4" s="82"/>
     </row>
-    <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="10">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="53"/>
@@ -13577,10 +13091,10 @@
       <c r="FU5" s="23"/>
       <c r="FV5" s="23"/>
     </row>
-    <row r="6" spans="1:178" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="11"/>
       <c r="B6" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -13610,11 +13124,11 @@
       <c r="AG6" s="9"/>
       <c r="AH6" s="12"/>
     </row>
-    <row r="7" spans="1:178" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="11"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -13643,11 +13157,11 @@
       <c r="AG7" s="9"/>
       <c r="AH7" s="12"/>
     </row>
-    <row r="8" spans="1:178" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -13675,7 +13189,7 @@
       <c r="AG8" s="9"/>
       <c r="AH8" s="12"/>
     </row>
-    <row r="9" spans="1:178" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="11"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -13698,10 +13212,10 @@
       <c r="AG9" s="9"/>
       <c r="AH9" s="12"/>
     </row>
-    <row r="10" spans="1:178" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="11"/>
       <c r="B10" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -13722,10 +13236,10 @@
       <c r="AG10" s="9"/>
       <c r="AH10" s="12"/>
     </row>
-    <row r="11" spans="1:178" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="11"/>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -13746,10 +13260,10 @@
       <c r="AG11" s="9"/>
       <c r="AH11" s="12"/>
     </row>
-    <row r="12" spans="1:178" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="11"/>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -13769,10 +13283,10 @@
       <c r="AG12" s="9"/>
       <c r="AH12" s="12"/>
     </row>
-    <row r="13" spans="1:178" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="11"/>
       <c r="E13" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="9"/>
@@ -13803,10 +13317,10 @@
       <c r="AG13" s="9"/>
       <c r="AH13" s="12"/>
     </row>
-    <row r="14" spans="1:178" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="11"/>
       <c r="E14" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="9"/>
@@ -13837,7 +13351,7 @@
       <c r="AG14" s="9"/>
       <c r="AH14" s="12"/>
     </row>
-    <row r="15" spans="1:178" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -13870,7 +13384,7 @@
       <c r="AG15" s="9"/>
       <c r="AH15" s="12"/>
     </row>
-    <row r="16" spans="1:178" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="11"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -13901,10 +13415,10 @@
       <c r="AG16" s="9"/>
       <c r="AH16" s="12"/>
     </row>
-    <row r="17" spans="1:34" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="11"/>
       <c r="B17" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -13937,11 +13451,11 @@
       <c r="AG17" s="9"/>
       <c r="AH17" s="12"/>
     </row>
-    <row r="18" spans="1:34" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="11"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -13972,11 +13486,11 @@
       <c r="AG18" s="9"/>
       <c r="AH18" s="12"/>
     </row>
-    <row r="19" spans="1:34" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -14006,11 +13520,11 @@
       <c r="AG19" s="9"/>
       <c r="AH19" s="12"/>
     </row>
-    <row r="20" spans="1:34" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="11"/>
       <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -14042,7 +13556,7 @@
       <c r="AG20" s="9"/>
       <c r="AH20" s="12"/>
     </row>
-    <row r="21" spans="1:34" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="11"/>
       <c r="B21" s="9"/>
       <c r="D21" s="2" t="s">
@@ -14078,7 +13592,7 @@
       <c r="AG21" s="9"/>
       <c r="AH21" s="12"/>
     </row>
-    <row r="22" spans="1:34" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="11"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -14106,7 +13620,7 @@
       <c r="AG22" s="9"/>
       <c r="AH22" s="12"/>
     </row>
-    <row r="23" spans="1:34" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="11"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -14134,7 +13648,7 @@
       <c r="AG23" s="9"/>
       <c r="AH23" s="12"/>
     </row>
-    <row r="24" spans="1:34" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -14162,7 +13676,7 @@
       <c r="AG24" s="9"/>
       <c r="AH24" s="12"/>
     </row>
-    <row r="25" spans="1:34" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="11"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -14190,7 +13704,7 @@
       <c r="AG25" s="9"/>
       <c r="AH25" s="12"/>
     </row>
-    <row r="26" spans="1:34" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="11"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -14218,7 +13732,7 @@
       <c r="AG26" s="9"/>
       <c r="AH26" s="12"/>
     </row>
-    <row r="27" spans="1:34" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="11"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -14246,7 +13760,7 @@
       <c r="AG27" s="9"/>
       <c r="AH27" s="12"/>
     </row>
-    <row r="28" spans="1:34" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="11"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -14282,7 +13796,7 @@
       <c r="AG28" s="9"/>
       <c r="AH28" s="12"/>
     </row>
-    <row r="29" spans="1:34" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="11"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -14318,7 +13832,7 @@
       <c r="AG29" s="9"/>
       <c r="AH29" s="12"/>
     </row>
-    <row r="30" spans="1:34" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="11"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -14354,7 +13868,7 @@
       <c r="AG30" s="9"/>
       <c r="AH30" s="12"/>
     </row>
-    <row r="31" spans="1:34" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="11"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -14390,7 +13904,7 @@
       <c r="AG31" s="9"/>
       <c r="AH31" s="12"/>
     </row>
-    <row r="32" spans="1:34" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="11"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -14426,7 +13940,7 @@
       <c r="AG32" s="9"/>
       <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:34" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="11"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -14462,7 +13976,7 @@
       <c r="AG33" s="9"/>
       <c r="AH33" s="12"/>
     </row>
-    <row r="34" spans="1:34" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="11"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -14498,7 +14012,7 @@
       <c r="AG34" s="9"/>
       <c r="AH34" s="12"/>
     </row>
-    <row r="35" spans="1:34" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="11"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -14534,7 +14048,7 @@
       <c r="AG35" s="9"/>
       <c r="AH35" s="12"/>
     </row>
-    <row r="36" spans="1:34" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="11"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -14570,7 +14084,7 @@
       <c r="AG36" s="9"/>
       <c r="AH36" s="12"/>
     </row>
-    <row r="37" spans="1:34" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="11"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -14606,7 +14120,7 @@
       <c r="AG37" s="9"/>
       <c r="AH37" s="12"/>
     </row>
-    <row r="38" spans="1:34" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="11"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -14642,7 +14156,7 @@
       <c r="AG38" s="9"/>
       <c r="AH38" s="12"/>
     </row>
-    <row r="39" spans="1:34" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -14678,7 +14192,7 @@
       <c r="AG39" s="9"/>
       <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:34" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="11"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -14714,7 +14228,7 @@
       <c r="AG40" s="9"/>
       <c r="AH40" s="12"/>
     </row>
-    <row r="41" spans="1:34" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -14752,18 +14266,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_ログイン画面(金原).xlsx
+++ b/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_ログイン画面(金原).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="46" documentId="8_{65EDF5FC-C01B-49FB-B760-BC27E93F57EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D2233B5-F623-4CCF-87DF-DFEC4A35112A}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -362,7 +362,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -427,6 +427,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -448,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -698,6 +704,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -706,7 +782,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -965,6 +1041,58 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2395,7 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A4">
       <selection activeCell="AC22" sqref="AC22:AE22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -9297,9 +9425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FV28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1" tabSelected="1">
       <pane ySplit="5" topLeftCell="F6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27" activeCellId="0"/>
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -9723,30 +9851,42 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="40"/>
       <c r="F6" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+        <v>57</v>
+      </c>
+      <c r="G6" s="44">
+        <v>10</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>59</v>
+      </c>
       <c r="J6" s="44"/>
-      <c r="K6" s="38"/>
+      <c r="K6" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="38"/>
+      <c r="P6" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="39"/>
+      <c r="U6" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="V6" s="39"/>
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
@@ -9763,7 +9903,7 @@
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -9773,7 +9913,7 @@
         <v>57</v>
       </c>
       <c r="G7" s="44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>58</v>
@@ -9781,9 +9921,7 @@
       <c r="I7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="44" t="s">
-        <v>60</v>
-      </c>
+      <c r="J7" s="44"/>
       <c r="K7" s="38" t="s">
         <v>61</v>
       </c>
@@ -9792,14 +9930,14 @@
       <c r="N7" s="39"/>
       <c r="O7" s="40"/>
       <c r="P7" s="38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="39"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
       <c r="T7" s="40"/>
       <c r="U7" s="39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V7" s="39"/>
       <c r="W7" s="39"/>
@@ -9817,14 +9955,14 @@
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
       <c r="F8" s="44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -9834,7 +9972,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
-      <c r="O8" s="41"/>
+      <c r="O8" s="40"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39"/>
@@ -9856,51 +9994,37 @@
       <c r="AH8" s="40"/>
     </row>
     <row r="9">
-      <c r="A9" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="44" t="s">
+      <c r="A9" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="44">
-        <v>20</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="40"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="124"/>
       <c r="AB9" s="39"/>
       <c r="AC9" s="39"/>
       <c r="AD9" s="39"/>
@@ -9910,37 +10034,33 @@
       <c r="AH9" s="40"/>
     </row>
     <row r="10">
-      <c r="A10" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="40"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="136"/>
+      <c r="X10" s="136"/>
+      <c r="Y10" s="136"/>
+      <c r="Z10" s="136"/>
+      <c r="AA10" s="136"/>
       <c r="AB10" s="39"/>
       <c r="AC10" s="39"/>
       <c r="AD10" s="39"/>
@@ -9950,37 +10070,33 @@
       <c r="AH10" s="40"/>
     </row>
     <row r="11">
-      <c r="A11" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="40"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
       <c r="AB11" s="39"/>
       <c r="AC11" s="39"/>
       <c r="AD11" s="39"/>
@@ -9990,33 +10106,33 @@
       <c r="AH11" s="40"/>
     </row>
     <row r="12">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="40"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="128"/>
       <c r="AB12" s="39"/>
       <c r="AC12" s="39"/>
       <c r="AD12" s="39"/>
@@ -10602,7 +10718,7 @@
       <c r="AH28" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
@@ -10615,6 +10731,14 @@
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="U11:AA11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_ログイン画面(金原).xlsx
+++ b/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_ログイン画面(金原).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="46" documentId="8_{65EDF5FC-C01B-49FB-B760-BC27E93F57EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D2233B5-F623-4CCF-87DF-DFEC4A35112A}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1277,130 +1277,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7200900" y="3524250"/>
-          <a:ext cx="1171575" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>メール通知</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Line 4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="3895725" y="2266950"/>
-          <a:ext cx="1209675" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -1546,68 +1422,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Line 4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="4019550" y="2219325"/>
-          <a:ext cx="3743325" cy="1285875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -1725,372 +1539,6 @@
             </a:rPr>
             <a:t>ログイン</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="AutoShape 13"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4467225" y="1828800"/>
-          <a:ext cx="1685925" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>社員情報一覧</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="AutoShape 13"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6953250" y="1828800"/>
-          <a:ext cx="1666875" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>基本情報登録</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Line 4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="7781925" y="2219325"/>
-          <a:ext cx="0" cy="1304925"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Line 5"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="3552825" y="2009775"/>
-          <a:ext cx="885825" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Line 5"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="6172200" y="2009775"/>
-          <a:ext cx="742950" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5999,7 +5447,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="K6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="R18" sqref="R18" activeCellId="0"/>
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -7678,7 +7126,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
+      <selection pane="bottomLeft" activeCell="S40" sqref="S40" activeCellId="0"/>
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -9425,9 +8873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FV28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1" tabSelected="1">
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="5" topLeftCell="F6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27" activeCellId="0"/>
+      <selection pane="bottomLeft" activeCell="R34" sqref="R34" activeCellId="0"/>
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -10756,7 +10204,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26" activeCellId="0"/>
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -12813,8 +12261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:FV41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" tabSelected="1">
+      <selection activeCell="AA11" sqref="AA11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>

--- a/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_ログイン画面(金原).xlsx
+++ b/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_ログイン画面(金原).xlsx
@@ -32,11 +32,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'BL一覧'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'補足説明'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙'!A1:AF38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'目次・概要'!A1:AH44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'目次・概要'!A1:AH43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'IO関連図'!A1:AG44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'画面レイアウト'!A1:AG44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'項目説明'!A1:AH28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'イベント'!A1:AH17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'イベント'!A1:AH23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'BL一覧'!A1:AH24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'補足説明'!A1:AH41</definedName>
   </definedNames>
@@ -353,6 +353,54 @@
   <si>
     <t>社員IDが存在して、パスワードが一致しないの場合は、以下のメッセージを表示</t>
   </si>
+  <si>
+    <t>社員IDまたはパスワードが正しくありません</t>
+  </si>
+  <si>
+    <t>社員IDチェックを実施し、存在しない場合又は、パスワードが存在しない場合、以下のメッセージを表示</t>
+  </si>
+  <si>
+    <t>WHERE SM.SYAINN_ID = 画面．ユーザーID（入力ボックス）の値</t>
+  </si>
+  <si>
+    <t>ログインボタン押下</t>
+  </si>
+  <si>
+    <t>閉じるボタン押下</t>
+  </si>
+  <si>
+    <t>①社員IDの存在性チェック</t>
+  </si>
+  <si>
+    <t>補足説明３．①を参照</t>
+  </si>
+  <si>
+    <t>②社員ID、パスワード一致性チェック</t>
+  </si>
+  <si>
+    <t>・一致しない場合</t>
+  </si>
+  <si>
+    <t>補足説明３．②を参照</t>
+  </si>
+  <si>
+    <t>ver1.0</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>設計見直し</t>
+  </si>
+  <si>
+    <t>社員IDチェックを実施し、存在しない場合又は、パスワードが一致しない場合、以下のメッセージを表示</t>
+  </si>
+  <si>
+    <t>社員マスタ．権限が１「管理担当者」、９「システム管理者」の場合は、社員情報一覧画面へ遷移とする</t>
+  </si>
+  <si>
+    <t>社員マスタ．権限が０「一般管理者」の場合は、勤怠情報一覧画面へ遷移とする</t>
+  </si>
 </sst>
 </file>
 
@@ -454,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -774,6 +822,12 @@
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -782,7 +836,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1092,6 +1146,29 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment/>
       <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1972,7 +2049,7 @@
   <dimension ref="A1:FT38"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A4">
-      <selection activeCell="AC22" sqref="AC22:AE22" activeCellId="0"/>
+      <selection activeCell="AC23" sqref="AC23:AE23" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
@@ -2906,15 +2983,21 @@
     </row>
     <row r="22" customHeight="1" ht="15">
       <c r="A22" s="11"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="113"/>
+      <c r="B22" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="113" t="s">
+        <v>109</v>
+      </c>
       <c r="G22" s="114"/>
       <c r="H22" s="114"/>
       <c r="I22" s="115"/>
-      <c r="J22" s="113"/>
+      <c r="J22" s="113" t="s">
+        <v>110</v>
+      </c>
       <c r="K22" s="114"/>
       <c r="L22" s="114"/>
       <c r="M22" s="114"/>
@@ -2933,7 +3016,9 @@
       <c r="Z22" s="114"/>
       <c r="AA22" s="114"/>
       <c r="AB22" s="115"/>
-      <c r="AC22" s="113"/>
+      <c r="AC22" s="113" t="s">
+        <v>10</v>
+      </c>
       <c r="AD22" s="114"/>
       <c r="AE22" s="115"/>
       <c r="AF22" s="12"/>
@@ -3583,7 +3668,7 @@
   <dimension ref="A1:FV44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="S19" sqref="S19" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
@@ -4253,7 +4338,7 @@
     <row r="13">
       <c r="A13" s="58"/>
       <c r="B13" s="59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -4290,9 +4375,7 @@
     </row>
     <row r="14">
       <c r="A14" s="58"/>
-      <c r="B14" s="59" t="s">
-        <v>30</v>
-      </c>
+      <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
@@ -4312,8 +4395,8 @@
       <c r="S14" s="59"/>
       <c r="T14" s="59"/>
       <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
       <c r="X14" s="59"/>
       <c r="Y14" s="59"/>
       <c r="Z14" s="59"/>
@@ -4327,7 +4410,9 @@
       <c r="AH14" s="60"/>
     </row>
     <row r="15">
-      <c r="A15" s="58"/>
+      <c r="A15" s="58" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
@@ -4348,8 +4433,8 @@
       <c r="S15" s="59"/>
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
       <c r="X15" s="59"/>
       <c r="Y15" s="59"/>
       <c r="Z15" s="59"/>
@@ -4363,10 +4448,10 @@
       <c r="AH15" s="60"/>
     </row>
     <row r="16">
-      <c r="A16" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="59"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
@@ -4402,10 +4487,10 @@
     </row>
     <row r="17">
       <c r="A17" s="58"/>
-      <c r="B17" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
       <c r="F17" s="59"/>
@@ -4421,7 +4506,7 @@
       <c r="P17" s="61"/>
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
+      <c r="S17" s="61"/>
       <c r="T17" s="59"/>
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
@@ -4442,7 +4527,7 @@
       <c r="A18" s="58"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -4459,11 +4544,11 @@
       <c r="P18" s="61"/>
       <c r="Q18" s="59"/>
       <c r="R18" s="59"/>
-      <c r="S18" s="61"/>
+      <c r="S18" s="59"/>
       <c r="T18" s="59"/>
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
+      <c r="W18" s="61"/>
       <c r="X18" s="59"/>
       <c r="Y18" s="59"/>
       <c r="Z18" s="59"/>
@@ -4480,7 +4565,7 @@
       <c r="A19" s="58"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
@@ -4500,7 +4585,7 @@
       <c r="S19" s="59"/>
       <c r="T19" s="59"/>
       <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
+      <c r="V19" s="61"/>
       <c r="W19" s="61"/>
       <c r="X19" s="59"/>
       <c r="Y19" s="59"/>
@@ -4517,9 +4602,7 @@
     <row r="20">
       <c r="A20" s="58"/>
       <c r="B20" s="59"/>
-      <c r="C20" s="59" t="s">
-        <v>35</v>
-      </c>
+      <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
@@ -4538,8 +4621,8 @@
       <c r="S20" s="59"/>
       <c r="T20" s="59"/>
       <c r="U20" s="59"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
       <c r="X20" s="59"/>
       <c r="Y20" s="59"/>
       <c r="Z20" s="59"/>
@@ -4607,13 +4690,13 @@
       <c r="P22" s="61"/>
       <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
       <c r="Z22" s="59"/>
       <c r="AA22" s="59"/>
       <c r="AB22" s="59"/>
@@ -4643,7 +4726,7 @@
       <c r="P23" s="61"/>
       <c r="Q23" s="59"/>
       <c r="R23" s="59"/>
-      <c r="S23" s="61"/>
+      <c r="S23" s="59"/>
       <c r="T23" s="61"/>
       <c r="U23" s="61"/>
       <c r="V23" s="61"/>
@@ -4679,7 +4762,7 @@
       <c r="P24" s="61"/>
       <c r="Q24" s="59"/>
       <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
+      <c r="S24" s="61"/>
       <c r="T24" s="61"/>
       <c r="U24" s="61"/>
       <c r="V24" s="61"/>
@@ -4892,16 +4975,16 @@
       <c r="M30" s="59"/>
       <c r="N30" s="59"/>
       <c r="O30" s="59"/>
-      <c r="P30" s="61"/>
+      <c r="P30" s="59"/>
       <c r="Q30" s="59"/>
       <c r="R30" s="59"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="61"/>
-      <c r="W30" s="61"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
       <c r="Z30" s="59"/>
       <c r="AA30" s="59"/>
       <c r="AB30" s="59"/>
@@ -5345,76 +5428,40 @@
       <c r="AH42" s="60"/>
     </row>
     <row r="43">
-      <c r="A43" s="58"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="59"/>
-      <c r="Y43" s="59"/>
-      <c r="Z43" s="59"/>
-      <c r="AA43" s="59"/>
-      <c r="AB43" s="59"/>
-      <c r="AC43" s="59"/>
-      <c r="AD43" s="59"/>
-      <c r="AE43" s="59"/>
-      <c r="AF43" s="59"/>
-      <c r="AG43" s="59"/>
-      <c r="AH43" s="60"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="63"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="63"/>
-      <c r="V44" s="63"/>
-      <c r="W44" s="63"/>
-      <c r="X44" s="63"/>
-      <c r="Y44" s="63"/>
-      <c r="Z44" s="63"/>
-      <c r="AA44" s="63"/>
-      <c r="AB44" s="63"/>
-      <c r="AC44" s="63"/>
-      <c r="AD44" s="63"/>
-      <c r="AE44" s="63"/>
-      <c r="AF44" s="63"/>
-      <c r="AG44" s="63"/>
-      <c r="AH44" s="64"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5447,7 +5494,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="K6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R18" sqref="R18" activeCellId="0"/>
+      <selection pane="bottomLeft" activeCell="AB32" sqref="AB32" activeCellId="0"/>
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -7126,7 +7173,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S40" sqref="S40" activeCellId="0"/>
+      <selection pane="bottomLeft" activeCell="Y19" sqref="Y19" activeCellId="0"/>
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -7666,13 +7713,11 @@
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
-      <c r="H10" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
@@ -7796,17 +7841,17 @@
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
-      <c r="H14" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="120"/>
+      <c r="H14" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="140"/>
       <c r="S14" s="31"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
@@ -8842,7 +8887,7 @@
       <c r="AG44" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
@@ -8853,7 +8898,6 @@
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="H10:L10"/>
     <mergeCell ref="H14:P14"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="R19:S19"/>
@@ -10204,7 +10248,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O26" sqref="O26" activeCellId="0"/>
+      <selection pane="bottomLeft" activeCell="R15" sqref="R15" activeCellId="0"/>
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -10724,7 +10768,7 @@
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -10769,11 +10813,9 @@
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="39"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
@@ -10793,7 +10835,7 @@
       <c r="Z10" s="39"/>
       <c r="AA10" s="39"/>
       <c r="AB10" s="40"/>
-      <c r="AC10" s="39"/>
+      <c r="AC10" s="38"/>
       <c r="AD10" s="39"/>
       <c r="AE10" s="39"/>
       <c r="AF10" s="39"/>
@@ -10807,11 +10849,11 @@
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
-        <v>77</v>
-      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
@@ -10831,7 +10873,7 @@
       <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="40"/>
-      <c r="AC11" s="39"/>
+      <c r="AC11" s="38"/>
       <c r="AD11" s="39"/>
       <c r="AE11" s="39"/>
       <c r="AF11" s="39"/>
@@ -10845,10 +10887,10 @@
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="40"/>
-      <c r="G12" s="39"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
@@ -10869,7 +10911,7 @@
       <c r="Z12" s="39"/>
       <c r="AA12" s="39"/>
       <c r="AB12" s="40"/>
-      <c r="AC12" s="39"/>
+      <c r="AC12" s="38"/>
       <c r="AD12" s="39"/>
       <c r="AE12" s="39"/>
       <c r="AF12" s="39"/>
@@ -10883,8 +10925,10 @@
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="40"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
@@ -10905,7 +10949,7 @@
       <c r="Z13" s="39"/>
       <c r="AA13" s="39"/>
       <c r="AB13" s="40"/>
-      <c r="AC13" s="39"/>
+      <c r="AC13" s="38"/>
       <c r="AD13" s="39"/>
       <c r="AE13" s="39"/>
       <c r="AF13" s="39"/>
@@ -10913,19 +10957,17 @@
       <c r="AH13" s="40"/>
     </row>
     <row r="14">
-      <c r="A14" s="38" t="s">
-        <v>79</v>
-      </c>
+      <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="38" t="s">
-        <v>80</v>
-      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="I14" s="39" t="s">
+        <v>106</v>
+      </c>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
@@ -10944,7 +10986,7 @@
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
       <c r="AA14" s="39"/>
-      <c r="AB14" s="41"/>
+      <c r="AB14" s="40"/>
       <c r="AC14" s="38"/>
       <c r="AD14" s="39"/>
       <c r="AE14" s="39"/>
@@ -10958,11 +11000,13 @@
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="J15" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
@@ -10973,15 +11017,15 @@
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
-      <c r="U15" s="42"/>
+      <c r="U15" s="39"/>
       <c r="V15" s="39"/>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
-      <c r="Z15" s="42"/>
+      <c r="Z15" s="39"/>
       <c r="AA15" s="39"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="39"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="38"/>
       <c r="AD15" s="39"/>
       <c r="AE15" s="39"/>
       <c r="AF15" s="39"/>
@@ -10996,7 +11040,9 @@
       <c r="E16" s="39"/>
       <c r="F16" s="40"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="H16" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
@@ -11033,7 +11079,9 @@
       <c r="F17" s="40"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="I17" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
@@ -11059,6 +11107,228 @@
       <c r="AF17" s="39"/>
       <c r="AG17" s="39"/>
       <c r="AH17" s="40"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="40"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="40"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="40"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="40"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="40"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12262,7 +12532,7 @@
   <dimension ref="A1:FV41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" tabSelected="1">
-      <selection activeCell="AA11" sqref="AA11" activeCellId="0"/>
+      <selection activeCell="U20" sqref="U20" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
@@ -12892,7 +13162,7 @@
     <row r="14">
       <c r="A14" s="11"/>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="9"/>
@@ -13027,7 +13297,7 @@
       <c r="A18" s="11"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -13062,7 +13332,7 @@
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -13095,9 +13365,7 @@
     <row r="20">
       <c r="A20" s="11"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -13131,9 +13399,7 @@
     <row r="21">
       <c r="A21" s="11"/>
       <c r="B21" s="9"/>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
